--- a/template/matakuliah_template.xlsx
+++ b/template/matakuliah_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Mata Kuliah</t>
   </si>
   <si>
-    <t>id_sms</t>
-  </si>
-  <si>
     <t>Jenjang Pendidikan</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>Jangan dirubah</t>
   </si>
   <si>
     <t>Kode Mata KuliahMata Kuliah</t>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>Tanggal dalam YYYY-mm-dd. Contoh : 2014-04-25</t>
+  </si>
+  <si>
+    <t>(SI, S2, S3)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +209,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,12 +310,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +332,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,50 +616,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="19" width="25.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -694,7 +681,7 @@
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -703,27 +690,24 @@
       <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -737,9 +721,8 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,178 +757,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>28</v>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>29</v>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>29</v>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>29</v>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>30</v>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>31</v>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>31</v>
+      <c r="C14" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>32</v>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/template/matakuliah_template.xlsx
+++ b/template/matakuliah_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -96,25 +96,51 @@
     <t>NO</t>
   </si>
   <si>
-    <t>59a4eb4d-ffc2-4ec5-a8af-a4a09469a62d</t>
+    <t>Jangan dirubah</t>
+  </si>
+  <si>
+    <t>Kode Mata KuliahMata Kuliah</t>
+  </si>
+  <si>
+    <t>Contoh : FIS = Fisika, MAT=matematika</t>
+  </si>
+  <si>
+    <t>A=Wajib  
+B=Pilihan
+C=Wajib Peminatan 
+D=Pilihan Peminatan
+E=Tugas akhir/Skripsi/Tesis/Disertasi</t>
+  </si>
+  <si>
+    <t>A=MPK-Pengembangan Kepribadian
+B=MKK-Keilmuan dan Ketrampilan
+C=MKB-Keahlian Berkarya
+D=MPB-Perilaku Berkarya
+E=MBB-Berkehidupan Bermasyarakat
+F=MKU/MKDU
+G=MKDK</t>
+  </si>
+  <si>
+    <t>Dalam Angka, Jumlah SKS Tatap Muka + Jumlah SKS Praktikum + Jumlah SKS Praktik Lapang + SKS Simulasi</t>
+  </si>
+  <si>
+    <t>Dalam Angka Contoh: 2</t>
+  </si>
+  <si>
+    <t>Deskripsi penjelasan</t>
+  </si>
+  <si>
+    <t>1 Jika ada , 0 jika tidak ada</t>
+  </si>
+  <si>
+    <t>Tanggal dalam YYYY-mm-dd. Contoh : 2014-04-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +174,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +208,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,144 +245,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -633,16 +658,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -672,13 +697,13 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -687,34 +712,34 @@
       <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,143 +749,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/matakuliah_template.xlsx
+++ b/template/matakuliah_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>(SI, S2, S3)</t>
+  </si>
+  <si>
+    <t>ID_SMS</t>
   </si>
 </sst>
 </file>
@@ -616,98 +619,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="25.44140625" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -721,8 +727,9 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,17 +741,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -755,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -766,7 +773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -777,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -788,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -799,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -810,7 +817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -821,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -832,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -843,7 +850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -854,7 +861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -865,7 +872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -876,7 +883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -887,7 +894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -898,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -909,7 +916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16</v>
       </c>

--- a/template/matakuliah_template.xlsx
+++ b/template/matakuliah_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mata Kuliah" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Tanggal dalam YYYY-mm-dd. Contoh : 2014-04-25</t>
   </si>
   <si>
-    <t>(SI, S2, S3)</t>
-  </si>
-  <si>
     <t>ID_SMS</t>
+  </si>
+  <si>
+    <t>dari applikasi</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,26 +242,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -272,16 +259,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,15 +289,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,10 +309,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>5</v>
@@ -739,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,178 +740,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
     </row>
